--- a/Alumni_Fantasy_League_Results.xlsx
+++ b/Alumni_Fantasy_League_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15996" windowWidth="25596" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15996" windowWidth="25596" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="OldData" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>First Name</t>
   </si>
@@ -140,6 +140,36 @@
     <t>Match Ups</t>
   </si>
   <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
     <t>Team Name</t>
   </si>
   <si>
@@ -158,22 +188,7 @@
     <t>Normalized WAE</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>0.7</t>
+    <t>Strength of Schedule</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1919,7 @@
   </sheetPr>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="N1" xSplit="2"/>
       <selection activeCell="P4" pane="topRight" sqref="P4"/>
     </sheetView>
@@ -3490,10 +3505,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3653,11 +3668,847 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A50:D50"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3669,7 +4520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3677,9 +4528,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -3691,22 +4542,25 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3731,11 +4585,14 @@
       <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3760,11 +4617,14 @@
       <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3789,11 +4649,14 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3818,11 +4681,14 @@
       <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3847,11 +4713,14 @@
       <c r="H6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3876,11 +4745,14 @@
       <c r="H7" t="n">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3905,11 +4777,14 @@
       <c r="H8" t="n">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3934,11 +4809,14 @@
       <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3963,11 +4841,14 @@
       <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3992,8 +4873,11 @@
       <c r="H11" t="n">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
-        <v>50</v>
+      <c r="I11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
